--- a/app/src/main/assets/Physical Education 2.xlsx
+++ b/app/src/main/assets/Physical Education 2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\FILES\Others\AcademicAlly Assessments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\AndroidStudioProjects\AcademicAlly\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B6E159-88CB-4879-9BAD-228B65ED097D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1C5957-5767-4566-868D-CC77C1F6623C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="78">
   <si>
     <t>Which dance style focuses on strength, technique, and flexibility?</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>Rhythmic Dancing</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
 </sst>
 </file>
@@ -575,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,7 +594,7 @@
     <col min="6" max="6" width="125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -613,8 +616,11 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -636,8 +642,11 @@
       <c r="G2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -659,8 +668,11 @@
       <c r="G3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -682,8 +694,11 @@
       <c r="G4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -705,8 +720,11 @@
       <c r="G5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -728,8 +746,11 @@
       <c r="G6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -751,8 +772,11 @@
       <c r="G7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -774,8 +798,11 @@
       <c r="G8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -797,8 +824,11 @@
       <c r="G9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -819,6 +849,9 @@
       </c>
       <c r="G10" t="s">
         <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -828,10 +861,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431F84B0-E732-4C2F-ABC6-ECBD8A5604B1}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -841,7 +874,7 @@
     <col min="3" max="3" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -851,8 +884,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -862,8 +898,11 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -873,8 +912,11 @@
       <c r="C3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -884,8 +926,11 @@
       <c r="C4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -895,8 +940,11 @@
       <c r="C5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -906,8 +954,11 @@
       <c r="C6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -917,8 +968,11 @@
       <c r="C7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -928,8 +982,11 @@
       <c r="C8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -939,8 +996,11 @@
       <c r="C9" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -949,6 +1009,9 @@
       </c>
       <c r="C10" t="s">
         <v>75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -958,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1022034-3B95-4AC0-9F80-3157C62375C8}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -971,7 +1034,7 @@
     <col min="3" max="3" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -981,8 +1044,11 @@
       <c r="C1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -992,8 +1058,11 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -1003,8 +1072,11 @@
       <c r="C3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -1014,8 +1086,11 @@
       <c r="C4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -1025,8 +1100,11 @@
       <c r="C5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -1036,8 +1114,11 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -1047,8 +1128,11 @@
       <c r="C7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -1058,8 +1142,11 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -1069,8 +1156,11 @@
       <c r="C9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -1079,6 +1169,9 @@
       </c>
       <c r="C10" t="b">
         <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
